--- a/www/IndicatorsPerCountry/Lesotho_GDPperCapita_TerritorialRef_1966_2012_CCode_426.xlsx
+++ b/www/IndicatorsPerCountry/Lesotho_GDPperCapita_TerritorialRef_1966_2012_CCode_426.xlsx
@@ -237,13 +237,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Lesotho_GDPperCapita_TerritorialRef_1966_2012_CCode_426.xlsx
+++ b/www/IndicatorsPerCountry/Lesotho_GDPperCapita_TerritorialRef_1966_2012_CCode_426.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="83">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,178 +36,196 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>375</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>457</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>593</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>626</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>769</t>
-  </si>
-  <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>715</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>936</t>
+    <t>631</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>764</t>
+  </si>
+  <si>
+    <t>773</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>995</t>
   </si>
   <si>
     <t>1054</t>
   </si>
   <si>
-    <t>962</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>892</t>
-  </si>
-  <si>
-    <t>944</t>
-  </si>
-  <si>
-    <t>953</t>
-  </si>
-  <si>
-    <t>948</t>
-  </si>
-  <si>
-    <t>972</t>
-  </si>
-  <si>
-    <t>1070</t>
-  </si>
-  <si>
-    <t>1159</t>
-  </si>
-  <si>
-    <t>1181.11151133</t>
-  </si>
-  <si>
-    <t>1201.03955449</t>
-  </si>
-  <si>
-    <t>1228.31995059</t>
-  </si>
-  <si>
-    <t>1246.18567057</t>
-  </si>
-  <si>
-    <t>1215.40992752</t>
-  </si>
-  <si>
-    <t>1341.44521217</t>
-  </si>
-  <si>
-    <t>1441.7899215</t>
-  </si>
-  <si>
-    <t>1485.04280635</t>
-  </si>
-  <si>
-    <t>1419.21326688</t>
-  </si>
-  <si>
-    <t>1434.10403859</t>
-  </si>
-  <si>
-    <t>1468.93260545</t>
-  </si>
-  <si>
-    <t>1504.49069129</t>
-  </si>
-  <si>
-    <t>1562.29148794</t>
-  </si>
-  <si>
-    <t>1597.6783129</t>
-  </si>
-  <si>
-    <t>1659.69135797</t>
-  </si>
-  <si>
-    <t>1668.01143105</t>
-  </si>
-  <si>
-    <t>1799.8130909</t>
-  </si>
-  <si>
-    <t>1888.23777962</t>
-  </si>
-  <si>
-    <t>1951.90256463</t>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>1447</t>
+  </si>
+  <si>
+    <t>1658</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>1678</t>
+  </si>
+  <si>
+    <t>1589</t>
+  </si>
+  <si>
+    <t>1564</t>
+  </si>
+  <si>
+    <t>1576</t>
+  </si>
+  <si>
+    <t>1561</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>1645</t>
+  </si>
+  <si>
+    <t>1621</t>
+  </si>
+  <si>
+    <t>1736</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1882</t>
+  </si>
+  <si>
+    <t>1853.54297901117</t>
+  </si>
+  <si>
+    <t>1914.62382045181</t>
+  </si>
+  <si>
+    <t>1903.67622257841</t>
+  </si>
+  <si>
+    <t>1924.09465245235</t>
+  </si>
+  <si>
+    <t>1888.69902048355</t>
+  </si>
+  <si>
+    <t>1931.6607745291</t>
+  </si>
+  <si>
+    <t>1940.31058051924</t>
+  </si>
+  <si>
+    <t>1922.67938128057</t>
+  </si>
+  <si>
+    <t>1923.90323254743</t>
+  </si>
+  <si>
+    <t>1967.43327436145</t>
+  </si>
+  <si>
+    <t>1997.35760955142</t>
+  </si>
+  <si>
+    <t>1959.02789399239</t>
+  </si>
+  <si>
+    <t>2003.08991926606</t>
+  </si>
+  <si>
+    <t>2004.06017812124</t>
+  </si>
+  <si>
+    <t>2013.80775709797</t>
+  </si>
+  <si>
+    <t>2056.32966356963</t>
+  </si>
+  <si>
+    <t>2106.84014026248</t>
+  </si>
+  <si>
+    <t>2177.85735056552</t>
+  </si>
+  <si>
+    <t>2199.39485848654</t>
+  </si>
+  <si>
+    <t>2313.88212836641</t>
+  </si>
+  <si>
+    <t>2346</t>
+  </si>
+  <si>
+    <t>2456</t>
+  </si>
+  <si>
+    <t>2559</t>
+  </si>
+  <si>
+    <t>2644</t>
+  </si>
+  <si>
+    <t>2710</t>
+  </si>
+  <si>
+    <t>2767</t>
   </si>
   <si>
     <t>Description</t>
@@ -512,7 +530,7 @@
         <v>1961.0</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -529,7 +547,7 @@
         <v>1962.0</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -546,7 +564,7 @@
         <v>1963.0</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -563,7 +581,7 @@
         <v>1964.0</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -580,7 +598,7 @@
         <v>1965.0</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -597,7 +615,7 @@
         <v>1966.0</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -614,7 +632,7 @@
         <v>1967.0</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -631,7 +649,7 @@
         <v>1968.0</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -648,7 +666,7 @@
         <v>1969.0</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -665,7 +683,7 @@
         <v>1970.0</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -682,7 +700,7 @@
         <v>1971.0</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -699,7 +717,7 @@
         <v>1972.0</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -716,7 +734,7 @@
         <v>1973.0</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -733,7 +751,7 @@
         <v>1974.0</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -750,7 +768,7 @@
         <v>1975.0</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -767,7 +785,7 @@
         <v>1976.0</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -784,7 +802,7 @@
         <v>1977.0</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -801,7 +819,7 @@
         <v>1978.0</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -818,7 +836,7 @@
         <v>1979.0</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -835,7 +853,7 @@
         <v>1980.0</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -852,7 +870,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -869,7 +887,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -886,7 +904,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -903,7 +921,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -920,7 +938,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
@@ -937,7 +955,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
@@ -954,7 +972,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
@@ -971,7 +989,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
@@ -988,7 +1006,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
@@ -1005,7 +1023,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
@@ -1022,7 +1040,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
@@ -1039,7 +1057,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -1056,7 +1074,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
@@ -1073,7 +1091,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
@@ -1090,7 +1108,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
@@ -1107,7 +1125,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1142,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
@@ -1141,7 +1159,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
@@ -1158,7 +1176,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
@@ -1175,7 +1193,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
@@ -1192,7 +1210,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
@@ -1209,7 +1227,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
@@ -1226,7 +1244,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
@@ -1243,7 +1261,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
@@ -1260,7 +1278,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
@@ -1277,7 +1295,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
@@ -1294,7 +1312,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60">
@@ -1311,7 +1329,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>426.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>426.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>426.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>426.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>426.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>426.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>426.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>426.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1329,50 +1483,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
